--- a/Datei1.xlsx
+++ b/Datei1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Zeitpunkt</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>CF 2</t>
-  </si>
-  <si>
-    <t>Summe</t>
   </si>
 </sst>
 </file>
@@ -353,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I7"/>
+  <dimension ref="B3:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -445,15 +442,6 @@
         <v>23.726539039454607</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <f>+SUM(C4:I5)</f>
-        <v>734.19821375100048</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
